--- a/data/trans_orig/P14A35_2012-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A35_2012-Edad-trans_orig.xlsx
@@ -710,12 +710,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>50,25%</t>
+          <t>50,7%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>78,67%</t>
+          <t>78,15%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -731,12 +731,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>50,25%</t>
+          <t>50,7%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>78,67%</t>
+          <t>78,15%</t>
         </is>
       </c>
     </row>
@@ -779,12 +779,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>21,85%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>49,75%</t>
+          <t>49,3%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -800,12 +800,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>21,85%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>49,75%</t>
+          <t>49,3%</t>
         </is>
       </c>
     </row>
@@ -921,12 +921,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>55,08%</t>
+          <t>54,58%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>86,05%</t>
+          <t>83,67%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -942,12 +942,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>55,08%</t>
+          <t>54,58%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>86,05%</t>
+          <t>83,67%</t>
         </is>
       </c>
     </row>
@@ -990,12 +990,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>44,92%</t>
+          <t>45,42%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1011,12 +1011,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>44,92%</t>
+          <t>45,42%</t>
         </is>
       </c>
     </row>
@@ -1132,12 +1132,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>53,55%</t>
+          <t>53,75%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>82,54%</t>
+          <t>81,31%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1153,12 +1153,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>53,55%</t>
+          <t>53,75%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>82,54%</t>
+          <t>81,31%</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>46,45%</t>
+          <t>46,25%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1222,12 +1222,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>46,45%</t>
+          <t>46,25%</t>
         </is>
       </c>
     </row>
@@ -1343,12 +1343,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31,61%</t>
+          <t>22,23%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>89,37%</t>
+          <t>89,21%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1364,12 +1364,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>31,61%</t>
+          <t>22,23%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>89,37%</t>
+          <t>89,21%</t>
         </is>
       </c>
     </row>
@@ -1412,12 +1412,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>68,39%</t>
+          <t>77,77%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1433,12 +1433,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>68,39%</t>
+          <t>77,77%</t>
         </is>
       </c>
     </row>
@@ -1952,12 +1952,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>59,65%</t>
+          <t>60,33%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>76,31%</t>
+          <t>76,15%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -1973,12 +1973,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>59,65%</t>
+          <t>60,33%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>76,31%</t>
+          <t>76,15%</t>
         </is>
       </c>
     </row>
@@ -2021,12 +2021,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>23,85%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>40,35%</t>
+          <t>39,67%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2042,12 +2042,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>23,85%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>40,35%</t>
+          <t>39,67%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P14A35_2012-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A35_2012-Edad-trans_orig.xlsx
@@ -710,12 +710,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>50,7%</t>
+          <t>51,68%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>78,15%</t>
+          <t>78,34%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -731,12 +731,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>50,7%</t>
+          <t>51,68%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>78,15%</t>
+          <t>78,34%</t>
         </is>
       </c>
     </row>
@@ -779,12 +779,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,85%</t>
+          <t>21,66%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>49,3%</t>
+          <t>48,32%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -800,12 +800,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>21,85%</t>
+          <t>21,66%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>49,3%</t>
+          <t>48,32%</t>
         </is>
       </c>
     </row>
@@ -921,12 +921,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>54,58%</t>
+          <t>55,41%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>83,67%</t>
+          <t>83,57%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -942,12 +942,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>54,58%</t>
+          <t>55,41%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>83,67%</t>
+          <t>83,57%</t>
         </is>
       </c>
     </row>
@@ -990,12 +990,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>45,42%</t>
+          <t>44,59%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1011,12 +1011,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>45,42%</t>
+          <t>44,59%</t>
         </is>
       </c>
     </row>
@@ -1132,12 +1132,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>53,75%</t>
+          <t>52,9%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>81,31%</t>
+          <t>82,66%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1153,12 +1153,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>53,75%</t>
+          <t>52,9%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>81,31%</t>
+          <t>82,66%</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>46,25%</t>
+          <t>47,1%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1222,12 +1222,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>46,25%</t>
+          <t>47,1%</t>
         </is>
       </c>
     </row>
@@ -1343,12 +1343,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,23%</t>
+          <t>31,19%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>89,21%</t>
+          <t>89,18%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1364,12 +1364,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>22,23%</t>
+          <t>31,19%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>89,21%</t>
+          <t>89,18%</t>
         </is>
       </c>
     </row>
@@ -1412,12 +1412,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>77,77%</t>
+          <t>68,81%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1433,12 +1433,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>77,77%</t>
+          <t>68,81%</t>
         </is>
       </c>
     </row>
@@ -1952,12 +1952,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>60,33%</t>
+          <t>60,05%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>76,15%</t>
+          <t>76,82%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -1973,12 +1973,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>60,33%</t>
+          <t>60,05%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>76,15%</t>
+          <t>76,82%</t>
         </is>
       </c>
     </row>
@@ -2021,12 +2021,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>39,67%</t>
+          <t>39,95%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2042,12 +2042,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>39,67%</t>
+          <t>39,95%</t>
         </is>
       </c>
     </row>
